--- a/deuChatbot/research_result/results/bleu_score/bleu_version_2(3500_300).xlsx
+++ b/deuChatbot/research_result/results/bleu_score/bleu_version_2(3500_300).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D204"/>
+  <dimension ref="A1:D305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6324,61 +6324,3428 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>GPT-4o-mini Average</t>
+          <t>Qwen2.5-7B-instruct</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기시험은 주로 시각디자인, 산업디자인, 공예디자인 세 가지 분야에서 진행되며, 각 분야별로 다음과 같은 특징이 있습니다:
+1. **시각디자인**:
+   - **실기종목**: 기초디자인, 사고의 전환
+   - **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+   - **실기주제**: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨으로 결정합니다. 예시로는 "잠자리와 저울"과 같은 주제가 있을 수 있습니다.
+   - **화지크기**: 켄트지3절
+   - **시간**: 5시간
+2. **산업디자인**:
+   - **실기종목**: 기초디자인, 사고의 전환 (이름은 동일하지만 종목별 배점과 준비물이 다를 수 있습니다)
+   - **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+   - **실기주제**: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨으로 결정합니다. 예시로는 "콜라병과 계절"과 같은 주제가 있을 수 있습니다.
+   - **화지크기**: 켄트지2절
+   - **시간**: 5시간
+3. **공예디자인**:
+   - **실기종목**: 기초디자인, 사고의 전환 (이름은 동일하지만 종목별 배점과 준비물이 다를 수 있습니다)
+   - **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+   - **실기주제**: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨으로 결정합니다. 예시로는 "바이러스와 자유"와 같은 주제가 있을 수 있습니다.
+   - **화지크기**: 켄트지2절
+   - **시간**: 5시간
+실기시험은 각 분야별로 준비물과 주제를 정해두고, 당일 추첨을 통해 주제를 결정합니다. 시간 내에 주어진 주제와 화지크기에 맞춰 작품을 완성해야 합니다.
+이러한 실기시험은 학생들의 창의력, 표현 능력, 그리고 문제 해결 능력을 평가하는 데 중점을 두고 있습니다.</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>0.3503363891862098</v>
+        <v>0.4560260941084923</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Google Gemma-2-9b-it Average</t>
+          <t>Qwen2.5-7B-instruct</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기종목은 다음과 같습니다:
+- **실기종목**: 시각디자인 / 산업디자인 / 공예디자인 중 선택
+- **준비물**:
+  - 볼펜
+  - 연필
+  - 색연필
+  - 수채물감 등 표현에 필요한 도구
+- **실기주제**: 
+  - 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+  - 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- **화지크기**: 켄트지3절
+- **시간**: 5시간</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>0.1851147391630709</v>
+        <v>0.3246215349027762</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과 모집종목별 인정대회에서는 다음과 같은 대회들이 있습니다:
+1. 배드민턴(남)의 경우:
+   - 한국중·고연맹회장기전국학생선수권대회
+   - 대한배드민턴협회장기전국종별배드민턴선수권대회
+   - 전국대회 개인전 3위 이내 입상자
+2. 축구(남)의 경우:
+   - 권역별고교축구리그 우승 및 준우승 입상자 중 경기출전 70% 이상 선수
+   - K리그 U-18 챔피언십의 4위 이내 입상자 중 경기출전 70% 이상 선수
+각 종목별로 다음과 같은 대회들이 인정대회에 포함됩니다:
+- 현·전 국가대표
+- 2023년도 전국대회 개인전 3위 이내 입상자 
+- 2023년도 권역별고교축구리그 우승 및 준우승 입상자 중 경기출전 70% 이상 선수
+각 대회의 상세 내용과 점수는 위에서 나열된 대회들에 따라 다릅니다.</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>0.3264288321500568</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 디자인조형학과의 기초디자인 실기시험에서는 주제A와 주제B 중 각각 하나를 선택하여 연결된 주제로 시험을 치릅니다. 제공된 예시 주제들은 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+수험생들은 주제A와 주제B 중에서 각각 하나를 선택하여 연결된 주제로 문제를 해결해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>0.5578475150857178</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보를 바탕으로, 학생부교과 전형에서 출결 점수는 일반적으로 반영되지 않습니다. 
+예를 들어:
+- 나군 학생부교과(성인학습자(정원내)전형)의 경우, 전형요소 반영비율은 다음과 같습니다.
+  - 학생부 교과: 0%
+  - 출결: 0%
+  - 서류: 70%
+  - 면접: 30%
+  - 실기: 0%
+  - 수능: 0%
+- 나군 학생부교과(성인학습자(정원외)전형 - 정원외)의 경우, 전형요소 반영비율은 다음과 같습니다.
+  - 학생부 교과: 0%
+  - 출결: 0%
+  - 서류: 70%
+  - 면접: 30%
+  - 실기: 0%
+  - 수능: 0%
+따라서, 현재 제공된 정보에 따르면 학생부교과 전형에서 출결 점수는 반영되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>2.03372275152111e-05</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>2024학년도 인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로는 9명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>0.7666368435504358</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>28명을 모집합니다.
+인문사회과학대학의 계열은 인문사회이며, 모집단위는 영어영문학과 - 교직이고, 해당 모집단위의 모집인원은 28명입니다. 이 정보는 전형일정에서 제공된 내용에 따릅니다.</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>0.170774598747111</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과 - 교직 - 간호교육인증의 나군 일반 학생 전형 모집 인원은 22명입니다.</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>0.5405327210172244</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>以下是根据韩语原文整理的英语等第与分数对应表：
+- 等级1：139分
+- 等级2：131分
+- 等级3：123分
+- 等级4：115分
+- 等级5：107分
+- 等级6：99分
+- 等级7：91分
+- 等级8：83分
+- 等级9：75分</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>0.3426908455434968</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>依据提供的信息，艺术高中（특수목적고의 예술고）的学生可以申请作为农村学生专项（농어촌학생전형）的一部分。具体来说，在“나군 학생부교과(농어촌학생전형) - 정원외 최종등록자 추가 제출서류”部分提到，艺术高中（특수목적고의 예술고）属于可以申请的学校类型之一。
+因此，艺术高中的学生是可以作为农村学生专项进行申请的。</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>0.239145814301351</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>4등급의 제자리 멀리뛰기 기록은 268～271cm이며, 배점은 275점입니다.</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>0.3363122080928405</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 경기지도학과에서 출결의 반영 비율은 12%입니다. 이는 나군 실기/실적(경기실적우수자전형) 전형요소 반영비율에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>0.07756657745304263</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>0.9472652833627722</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과(시각디자인, 산업디자인, 공예디자인)의 실기고사는 2024년 1월 17일(수)에 있습니다.</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>0.02772816618341941</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 동의대학교 2024학년도 응용화학과의 수능 최저기준에 대한 직접적인 정보는 없습니다. 하지만, 다른 전형별로 수능 최저기준이 제시되어 있지 않은 것을 볼 수 있습니다.
+특히, 수능 위주의 일반학생전형에서 다음과 같은 내용을 확인할 수 있습니다:
+- 가군 수능(일반학생전형)의 경우, 전 모집단위(레저스포츠학과, 태권도학과 제외)에 대한 수능 최저기준은 명시되어 있지 않습니다.
+- 나군 수능(일반학생전형)의 경우, 한의예과(수학(미적분/기하), 수학(확률과 통계)) 외의 전 모집단위에 대한 수능 최저기준도 명시되어 있지 않습니다.
+따라서 동의대학교 응용화학과의 2024학년도 수능 최저기준을 확인하기 위해서는 대학官方网站或文档中提到的具体要求。
+如果上述信息不足以确定具体的专业最低录取标准，建议直接访问东义大学的官方网站或者联系招生办公室获取最准确的信息。通常这些详细信息会在学校的招生简章、官网公告栏或是通过电话咨询获得。</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>1.692791126362374e-12</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과는 다음과 같습니다:
+1. 미래융합대학 라이프융합학부 - 신설 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+2. 미래융합대학 부동산자산경영학부 (부동산투자학, 부동산개발경영학)
+이러한 학과들은 2024년부터 신설되어 입학생을 모집하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>0.5182704510046059</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 다음과 같습니다:
+- 서류: 70%
+- 면접: 30%
+이 비율은 모든 모집단위에 적용되는 일반적인 규칙입니다.</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>0.4325007851533212</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>东义大学在一些特定的学科中提供数学(微积分或几何)考试的成绩加成点。具体来说：
+- 对于医学院校和生活保健学院、工科学院以及ICT融合工科学院的招生单位，适用的科目是：
+  - 国语（25%）
+  - 数学（25%，对于参加微积分或几何考试的学生，数学标准分数额外增加10%） 
+  - 英语（25%）
+  - 探索（社会探索、科学探索或职业探索-两个科目合计）（25%）
+- 对于中医预科的数学(微积分/几何)参加者：
+  - 国语（25%）
+  - 数学 (微积分 或 几何) （25%）
+  - 英语（25%）
+  - 探索（社会探索或科学探索-两个科目合计）（25%）
+- 对于中医预科的数学(概率与统计)参加者：
+  - 国语（25%）
+  - 数学 (概率与统计) （25%）
+  - 英语（25%）
+  - 探索（社会探索或科学探索-两个科目合计）（25%）
+- 对于艺术设计体育学院的招生单位(不包括时装设计专业)，适用的科目是：
+  - 国语、数学、英语和探索中的三个最高分数部分
+所以总结来说，只有特定学科的专业在参加微积分或几何考试时可以得到额外10%的加分。</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>0.01254672447951061</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 가군에서는 수능 성적이 다음과 같이 반영됩니다:
+- **반영 영역**: 국어(화법과작문 or 언어와매체), 수학(확률과통계 or 미적분 or 기하), 영어, 탐구(사회탐구 or 과학탐구 or 직업탐구 중 2개 과목)
+- **반영 비율**: 각 영역별로 25%
+따라서, 수능 성적은 다음과 같이 계산됩니다:
+- 국어 표준점수 (25%)
+- 수학 표준점수 (25%)
+- 영어 등급 점수 (25%)
+- 탐구 표준점수 (25%)
+이러한 점수들을 합산하여 최종 성적을 산출합니다.</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>0.0756807514034465</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사는 레저스포츠학과와 태권도학과에서 실시되며, 날짜는 2024년 1월 16일(화)입니다.</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>0.4881459582059889</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형)에서는 다음과 같은 모집단위가 제외됩니다:
+- 한의예과 수학(미적분/기하) 응시자 모집단위
+- 예술디자인체육대학 패션디자인학과 모집단위
+이 외에는 동의대학교 나군 수능(일반학생전형)에서 제외되는 모집단위는 없습니다.</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>0.2208043334604937</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 다군 전형에 대한 정보는 제공된 자료에서는 확인할 수 없습니다. 하지만 일반적으로 대학별로 다군 전형에서 수능 최저기준을 설정하는 경우가 많습니다. 
+수능 최저기준이 적용되는지 확인하려면:
+1. 동의대학교 입시 홈페이지를 방문하여 2024학년도 정시모집 안내를 확인합니다.
+2. 다군 전형에 대한 상세한 기준과 조건을 찾아보세요.
+3. 수능 최저기준이 명시되어 있는지 확인합니다.
+만약 자료가 부족하다면, 동의대학교 입학처로 직접 문의하거나, 대입 컨설팅 서비스를 이용하는 것이 가장 정확한 정보를 얻는 방법입니다.</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>0.001446544480011587</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 "사회복지학과"가 학부에서 학과로 분리되었습니다. 이는 전형별 모집단위별 모집인원에서 확인할 수 있는 정보입니다.</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>0.04214785845759829</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 2024학년도 전형일정에서 원서접수(인터넷)의 마감일은 2024. 01. 06.(토) 18시까지입니다.</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>0.6548788236950965</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 주요한 전형 요소 변화는 다음과 같습니다:
+1. **평생학습자전형, 성인학습자(정원내·외)전형, 재직자전형**:
+   - 서류평가 영역 및 배점이 변경되었습니다.
+     - 공동체역량: 1등급 140점 → 1등급 120점
+     - 학업역량: 1등급 280점 → 1등급 240점
+     - 전공적합성: 1등급 280점 → 1등급 240점
+   - 면접평가 영역 및 배점이 변경되었습니다.
+     - 학업역량: 1등급 180점 → 1등급 165점
+     - 전공적합성: 1등급 120점 → 1등급 90점
+2. **조기취업형 계약학과전형 (정원외)**:
+   - 서류평가 영역 및 배점이 변경되었습니다.
+     - 공동체역량: 1등급 120점 → 1등급 108점
+     - 학업역량: 1등급 240점 → 1등급 216점
+     - 전공적합성: 1등급 240점 → 1등급 216점
+3. **실기/실적(경기실적우수자전형)**:
+   - 서류심사 기준 및 점수표가 일부 변경되었습니다.
+이러한 변화는 전반적으로 평생학습자, 성인학습자, 재직자 등 비전통적인 학생들의 평가 기준을 조정하고 있으며, 특히 면접평가에서의 배점을 줄여 전형의 공정성을 높이려는 노력으로 해석할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>0.2362619588531337</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서는 실기가 차지하는 비중은 다음과 같습니다:
+- 레저스포츠학과, 태권도학과는 실기 비중이 70%입니다.
+- 기타 모집단위는 수능 비중이 100%이며, 실기는 반영되지 않습니다.
+따라서, 일반적으로 가군 실기/실적 전형에서는 실기가 차지하는 비중은 **70%**입니다.</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>0.02848592731084167</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 라이프융합학부는 세부 전공으로 다음과 같이 구성되어 있습니다:
+1. 스타트업창업투자학
+2. 뷰티비즈니스학 
+3. 라이프생활문화학
+이 학부는 미래융합대학에 속해 있으며, 다양한 산업 분야와 융합된 새로운 직무 역량을 기르기 위해 설립되었습니다. 세부 전공별로 각각의 특화된 교육 프로그램과 취업 준비를 위한 실질적인 경험 제공이 이루어질 것으로 예상됩니다.</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>0.1907047116936438</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 실기고사를 진행하는 학과들은 다음과 같습니다:
+1. 디자인조형학과 (시각디자인, 산업디자인, 공예디자인)
+   - 실기종목: 기초디자인, 사고의 전환
+   - 화지 크기: 켄트지 3절
+   - 시간: 5시간
+2. 체육학과 
+   - 실기종목: 제자리 멀리뛰기, 메디신볼 던지기, Z-런
+   - 각 종목별 배점 비율은 240점(24%), 243점(23%), 230점(23%)입니다.
+이 외에 다른 학과에서는 실기고사가 진행되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>0.03441967526000982</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형을 지원할 수 있는 학과는 다음과 같습니다:
+1. 레저스포츠학과 (가군)
+2. 태권도학과 (가군)
+3. 디자인조형학과 (나군, 시각디자인, 산업디자인, 공예디자인 포함)
+4. 체육학과 (나군, 교직 포함)
+5. 경기지도학과 (다군, 신설)
+이러한 학과들은 전형 유형이 실기/실적 위주이며, 해당 학과를 지원하려면 실기 평가와 관련된 준비가 필요합니다.</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>0.2400611804628467</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>2024년도에 동의대학교 미래융합대학 라이프융합학부는 다음과 같은 전공을 신설하였습니다:
+- 스타트업창업투자학
+- 뷰티비즈니스학 
+- 라이프생활문화학
+따라서, 동의대 라이프융합학부에서는 이 세 가지 전공 중 하나를 선택하여 공부할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>0.4227209401340394</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>네, 특수목적고등학교 학생도 동의대학교 일반학생전형에 지원이 가능합니다. 
+특수목적고등학교로는 과학고, 국제고, 외국어고, 예술고, 체육고, 마이스터고 등이 해당되며, 이들 특수목적고등학교의 학생들은 동의대학교의 가군(수능 위주), 나군(실기/실적 위주) 및 다군(수능 위주) 전형 모두 지원이 가능합니다.
+따라서, 특수목적고등학교 재학 중인你是韩国人吗？根据您提供的信息，您似乎是关于韩国东国大学（Dongguk University）的招生政策询问。如果您是想确认特定条件下的申请资格，请告诉我具体是哪个专业或哪种类型的入学考试，我可以帮助您进一步查找相关信息。如果有任何不清楚的地方或者需要更多信息，请直接提问吧！</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>0.1245028902273642</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과를 파악하기 위해서는 각 학과별 정원 내 모집 인원을 비교해야 합니다. 제공된 정보를 바탕으로, 다음과 같은 결론을 도출할 수 있습니다:
+1. **공과대학**의 학과들이 많은 인원을 모집하고 있습니다:
+   - 기계공학과: 17명
+   - 로봇자동화공학과: 0명 (단위에서 제외되었음)
+   - 자동차공학과: 7명
+   - 조선해양공학과: 26명
+   - 신소재공학과: 32명
+   - 고분자나노공학과: 26명
+2. **의료·보건·생활대학**에서도 많은 인원을 모집하고 있습니다:
+   - 치위생학과: 16명
+   - 방사선학과: 2명
+3. **인문사회과학대학**에서도 꽤 많은 인원을 모집하고 있습니다:
+   - 영어영문학과: 28명
+이 중에서 가장 많이 모집하는 학과는 **조선해양공학과**로, 정원 내 모집 인원이 36명입니다. 이외에도 신소재공학과와 고분자나노공학과도 많은 인원을 모집하고 있습니다.
+따라서, 2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과는 **조선해양공학과**로 추정됩니다.</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>0.003608036673560529</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>你是特殊教育高中学生，根据提供的信息，你符合东义大学农林农村学生选拔的条件。具体来说：
+1. **支持资格**：
+   - 特殊教育高中（包括科学高中、国际高中和外语高中）的学生是可以申请的。
+   - 艺术高中和体育高中的学生也是可以申请的。
+   - 技工高中学生也可以申请。
+   - 普通高中、自治高中以及各种其他类型的学校的学生也都可以申请。
+2. **申请资格**：
+   - 你需要满足6年制或12年制课程的要求，即在农村（镇/乡）地区的中学和高中完成整个教育过程，并且你本人及父母（如果还活着的话）在这期间居住在农村地区。
+3. **提交的文件**：
+   - 如果你是6年制课程的学生：你需要提供以下文件
+     1. 你的家庭关系证明书1份
+     2. 你自己、父亲和母亲的居民登记副本各1份（总共3份）
+     3. 初中学生手册1份
+     4. 高中学生手册1份。如果父母之一去世，需要提供死亡证明；如果父母离婚，则需要提供监护方的婚姻关系证明以及你的出生证明。
+   - 如果你是12年制课程的学生：你需要提供以下文件
+     1. 你自己的居民登记副本1份
+     2. 小学学生手册1份
+     3. 初中学生手册1份
+     4. 高中学生手册1份
+因此，作为特殊教育高中学生，你可以申请东义大学的农林农村学生选拔。你需要准备相应的文件并按照要求提交。建议你访问东义大学官方网站（https://ipsi.deu.ac.kr/main.do）获取更详细的信息和最新的申请指南。</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>3.076223802199721e-80</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 최종등록자의 경우, 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 317.87이며, 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균은 434.70입니다.
+따라서, 주어진 정보 중에서 소프트웨어공학부 합격자의 평균 성적을 나타내는 것은 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균인 434.70이라고 할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>0.1437732808054662</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초합격자의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 **330.11**입니다.</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>0.2446630151736653</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>2024학년도 경희대학교 정시모집 합격자 발표 일정에 대한 정보는 제공되지 않았습니다. 일반적으로 대학의 정시모집 합격자는 해당 대학이 공식 홈페이지나 입학처를 통해 발표하며, 이 시기는 보통 12월 중순부터 말까지 이루어집니다.
+경희대학교의 경우, 정확한 합격자 발표 일정은 다음과 같습니다:
+- **합격자 명단 발표**: 보통 12월 중순에서 말 사이에 진행됩니다.
+- **온라인 확인**: 합격자 명단은 대학 홈페이지를 통해 온라인으로 확인할 수 있습니다.
+具体的来说，首尔景熙大学的最终录取结果通常会在12月中旬到下旬之间公布。具体日期可能会有所不同，请关注学校官网或招生办公室的通知以获取准确信息。
+如果您需要最新的确切日期，建议直接访问景熙大学官方网站或者联系学校的招生办公室进行确认。</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>0.1809812485079724</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>題目中的信息似乎不完整，沒有提供具體的面試時間。一般來說，大學會在特定日期安排面試，具體日期通常會在招生簡章或官網上公布。
+如果您能提供更多關於哪個學科或專業的信息，我可以幫助您查找更詳細的日程安排。請告知具體情況，謝謝！</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>6.479452630762043e-232</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 명확한 한의예과 최저학력기준 정보는 제공되지 않았습니다. 하지만 일반적으로 한의예과의 지원 자격은 다음과 같은 특징을 가질 수 있습니다:
+1. 수능 응시 요건:
+   - 수학(미적분 또는 기하) 과목 응시 필요
+   - 일부 대학에서는 수학(확률과 통계)도 인정할 수 있음
+2. 학력 요구:
+   - 고등학교 졸업 자격이 필요함
+3. 추가 요건:
+   - 특정 대학에서는 특별한 지원 자격 조건을 두고 있을 수 있음 (예: 특정 과목 성적 기준 등)
+4. 경쟁률과 합격 점수:
+   - 각 대학마다 다르므로, 정확한 최저학력기준은 해당 대학의 공식 입시 안내를 확인해야 합니다
+5. 추가 지원 자격:
+   - 일부 대학에서는 특별한 지원 자격 조건을 두고 있을 수 있음 (예: 특정 활동 경력 등)
+따라서 정확한 한의예과 최저학력기준은 각 대학의 공식 입시 안내를 확인하는 것이 가장 정확합니다.</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>9.994384077679679e-09</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보를 바탕으로, 다음과 같은 전형별로 수능 최저학력 기준이 없습니다:
+1. 가군 수능(일반학생전형) - 전 모집단위(레저스포츠학과, 태권도학과 제외)
+2. 나군 수능(일반학생전형) - 전 모집단위(한의예과, 디자인조형학과, 체육학과, 경기지도학과 제외)
+3. 다군 수능(일반학생전형)
+이들 전형 모두 "수능최저기준 없음"이라고 표시되어 있습니다.
+그러나 다른 전형에서는 수능 최저학력 기준이 있을 수 있으므로, 전체적인 입학 전형을 검토하시거나 대학의 공식 안내를 확인하시는 것이 좋겠습니다. 특히 학생부교과 위주 또는 실기/실적 위주의 전형에서는 수능 최저학력 기준이 설정될 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>3.38865160479581e-07</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>충원 합격자 발표 일정은 다음과 같습니다:
+- **2024. 02. 14.(수) 09:00**: 충원 합격자 1차 (인터넷) 발표
+- **2024. 02. 15.(목) 09:00**: 충원 합격자 2차 (인터넷) 발표
+이후에는 개별 전화 통보를 통해 추가적으로 발표될 예정입니다:
+- **2024. 02. 15.(목) 19:00~ 2024. 02. 20.(화) 18시까지**: 충원 합격자 3차 이후 (개별 전화 통보) 발표
+각 차례의 발표는 홈페이지에서 개별 조회 가능하며, 고지서 교부와 등록장소는 학교 지정은행으로 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>0.3165967043240338</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 추가합격자의 발표일자는 명시되어 있지 않습니다. 추가합격자 발표 일정과 관련된 자세한 정보는 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 참조하시거나 동의대학교 입학처에 직접 문의하시는 것이 가장 정확할 것입니다.</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>0.1186120342695111</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 추가 모집 여부를 확실히 알 수 없습니다. 추가 모집이 있는지 확인하려면 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 방문하여 최신 공고나 안내사항을 확인하시기 바랍니다. 해당 사이트에서 가장 정확하고 최신 정보를 얻을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>0.1410767000868474</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>평생학습자전형은 주로 성인 학습자를 대상으로 하는 입학 전형 중 하나입니다. 이 전형에서는 고등학교 졸업 자격을 갖춘 성인 학습자가 지원할 수 있으며, 다양한 모집단위와 모집인원이 있습니다.
+주요 내용은 다음과 같습니다:
+1. **모집 단과대학 및 계열**:
+   - 미래융합대학 (인문사회)
+   - 상경대학 (인문사회)
+2. **모집 단위 및 인원**:
+   - 라이프융합학부: 34명
+   - 부동산자산경영학부: 30명
+3. **제출 서류**:
+   - 고교 졸업증명서
+   - 지원자 본인, 부모 초본 (각 1부)
+4. **평가 요소 및 비율**:
+   - 서류 평가: 70%
+   - 면접 평가: 30%
+5. **동점자 처리 기준**:
+   - 1위: 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 등급 평균 상위자
+   - 2위: 영어교과 전 과목 등급 평균 상위자
+   - 3위: 국어교과 전 과목 등급 평균 상위자
+6. **면접 평가**:
+   - 학업역량 (문제해결능력)
+   - 전공적합성 (진로정보 탐색능력)
+7. **서류평가 영역 및 배점**:
+   - 공동체역량: 1등급 140점, 2등급 129.5점 등
+   - 학업역량: 1등급 280점, 2등급 259점 등
+   - 전공적합성: 1등급 280점, 2등급 259점 등
+이러한 정보를 바탕으로 평생학습자전형에 지원하려는 학생들은 필요한 서류를 준비하고, 동점자 처리 기준과 면접 질문 등을 미리 파악하여 입학사정관의 평가를 받기 위한 준비를 하는 것이 중요합니다. 자세한 내용은 공식 홈페이지 (https://ipsi.deu.ac.kr/main.do)에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>0.3501531470110986</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 평생학습자전형의 지원 자격은 다음과 같습니다:
+- **재직기간**: 2024년 3월 1일 기준으로 총 재직기간이 3년 이상(예정)이어야 합니다.
+- **재직기간 산정**: 제출한 지원자격 증빙서류 상으로 증명되는 기간만 산정됩니다. 
+- **다중 재직**: 2개 이상의 산업체에 재직한 경우 총 재직기간은 합산하여 산정되지만, 중복되는 기간은 이중으로 합산하지 않습니다.
+- **군 의무복무**: 군 의무복무 경력도 재직기간으로 인정됩니다.
+또한, 지원 자격 증빙서류로는 다음과 같은 것들이 필요합니다:
+1. 4대 보험 중 1개 이상 가입 사업체 (창업·자영업자 포함)의 경우, 4대 보험 가입증명서가 필요합니다.
+2. 국가·지방자치단체 및 공공단체 소속 직원인 경우, 해당 증빙서류가 필요합니다.
+3. 상시근로자 5인(사업주 포함) 이상 사업체에서 근무하는 경우, 건강보험자격득실확인서 또는 기타 관련 증빙서류가 필요합니다.
+이 외에도 특정 산업 분야에서는 공적증명서를 통해 인정받을 수도 있습니다. 자세한 내용은 입학 안내 홈페이지를 참조하시거나 문의해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>0.0001318510732578743</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 실기고사의 장소는 다음과 같이 결정됩니다:
+- **2024. 01. 16.(화)**: 레저스포츠학과와 태권도학과의 실기고사는 대기실 및 입실시간 안내를 위해 2024. 01. 12.(금) 14:00 이후에 입학안내 홈페이지에서 확인할 수 있습니다.
+- **2024. 01. 17.(수)**: 디자인조형학과 (시각디자인, 산업디자인, 공예디자인)와 체육학과의 실기고사는 대기실 및 입실시간 안내를 위해 2024. 01. 12.(금) 14:00 이후에 입학안내 홈페이지에서 확인할 수 있습니다.
+이 정보가 도움이 되길 바랍니다. 더 궁금한 점이 있으시면 언제든지 물어보세요!</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>0.01169913391721684</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>2024년 체육학과의 실기고사는 다음과 같이 진행됩니다:
+1. **일정**:
+   - **제자리 멀리뛰기**: 2024년 1월 17일 (수)
+   - **메디신볼 던지기**: 2024년 1월 17일 (수)
+   - **Z-런**: 2024년 1월 17일 (수)
+2. **장소**:
+   - 체육학과의 실기고사는 각각 제자리 멀리뛰기, 메디신볼 던지기, Z-런 종목별로 대학 내에서 진행됩니다.
+3. **준비사항**:
+   - **대기실 및 입실 시간 안내**: 2024년 1월 12일 (금) 14:00 이후에 입학안내 홈페이지에서 확인 가능합니다.
+   - **입실 시간**: 각 종목별로 정해진 시간에 맞춰 대기실에 입장해야 합니다.
+따라서, 체육학과의 실기고사는 해당 학교 내에서 진행되며, 일정 날짜와 시간에 따라 각각의 종목을 준비하고 참가하면 됩니다.</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>0.001941604163709238</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>2024년 동일 학교와 같은 상황을 고려할 때, 일반적으로 수시 충원합격자 발표 후에는 개별 전화 통보를 받을 수 있습니다. 하지만 정확한 정보는 해당 대학의 공식 웹사이트나 입학처에서 확인하는 것이 가장 좋습니다. 
+https://ipsi.deu.ac.kr/main.do 링크를 참고하여 최신 정보를 확인하시거나, 직접 동의대학교 입학처에 문의하시는 것을 추천드립니다.
+만약 웹사이트에서 명시적으로 전화 통보가 언급되어 있지 않다면, 홈페이지나 공지사항을 주기적으로 확인하는 것이 좋습니다. 또한 합격자 발표 후에는 대학 입학처로 직접 연락하여 자세한 안내를 받는 것도 방법입니다.</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>0.1693965112306436</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과의 수시모집 결과에 대한 구체적인 정보를 찾을 수 없습니다. 하지만, 일반적으로 수시모집 결과는 지원자 수, 경쟁률, 충원 합격자 등 주요 지표로 요약됩니다. 예를 들어:
+- 모집인원: 7명
+- 지원 인원: 29명 (예상치)
+- 경쟁률: 약 4.14대 1 (예상치)
+실제 결과는 입학처 공지나 대학 홈페이지에서 확인할 수 있습니다. 정확한 데이터를 얻으려면, 해당 대학의 입학처 웹사이트 또는 공식 발표 자료를 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>0.1390490650046464</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>2024학년도 입학을 위한 정시모집에서 일부 전형에서는 수능 응시를 필수로 요구하지 않습니다. 그러나 특정 전형에서는 수능 점수가 필요하거나, 수능 점수가 있는 경우 더 유리한 평가를 받을 수 있습니다.
+예를 들어:
+1. **학생부종합전형**: 대부분의 학생부종합전형은 수능 성적을 반영하지만, 일부 전형에서는 수능 응시 여부에 상관없이 지원이 가능합니다.
+2. **평생학습자전형 / 성인학습자전형 / 재직자전형**: 이들 전형은 주로 학생부와 면접을 중심으로 평가하므로, 수능 응시 여부에 크게 영향을 받지 않습니다.
+3. **조기취업형계약학과전형**: 일부 모집단위에서는 수능 점수가 필요하지만, 다른 모집단위에서는 수능 없이 지원 가능합니다.
+따라서 특정 전형별로 수능 응시 여부에 대한 정확한 정보를 확인해야 합니다. 각 전형의 세부 조건을 꼼꼼히 살펴보고, 필요하다면 입학처나 학과 담당자에게 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>9.798076607025612e-06</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>一般来说，高中毕业后超过10年再申请大学的情况比较少见。大多数大学的招生政策针对的是应届高中生和往届生（通常指毕业2-3年内）。不过，具体情况可能会有所不同。
+您提到的情况可能涉及以下几个方面：
+1. **特殊招生计划**：有些学校或专业会有特殊的招生计划，比如成人教育、在职人员进修等，这些计划可能会放宽对申请者年龄的限制。您可以查看目标学校的招生简章，了解是否有适合您的特殊招生计划。
+2. **重新参加高考**：如果您之前没有参加过高考（大学入学考试），可以考虑重新参加高考，然后通过高考成绩申请大学。
+3. **其他入学途径**：有些学校可能会有针对社会人士的入学途径，如成人教育学院、开放大学等。这些途径可能对年龄和学历要求有所不同。
+建议您访问目标学校的官方网站或直接联系招生办公室，了解具体的招生政策和要求。如果有可能的话，也可以咨询专业的留学顾问获取更详细的指导。
+[更多详细信息可以参考学校官网](https://ipsi.deu.ac.kr/main.do)。</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>2.727311019379944e-79</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 정시모집 일정을 요약하면 다음과 같습니다:
+1. **모집인원 확정 공고**:
+   - 날짜: 2024년 1월 2일 (화)
+   - 비고: 입학안내 홈페이지 공고
+2. **원서접수(인터넷)**:
+   - 시작일: 2024년 1월 3일 (수)
+   - 마감일: 2024년 1월 6일 (토) 18시까지
+   - 참고 사이트: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. **서류 제출**:
+   - 시작일: 2024년 1월 3일 (수)
+   - 마감일: 2024년 1월 12일 (금) 17시까지 도착
+   - 서류 제출 대상: (IV. 전형별 세부 안내 참조)
+     - 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. **&lt;가&gt;군 실기고사**:
+   - 레저스포츠학과, 태권도학과
+   - 날짜: 2024년 1월 16일 (화)
+   - 비고: 대기실 및 입실시간 안내는 2024년 1월 12일 (금) 14:00 이후 입학안내 홈페이지에서 조회
+5. **&lt;나&gt;군 실기고사**:
+   - 디자인조형학과 (시각디자인, 산업디자인, 공예디자인), 체육학과
+   - 날짜: 2024년 1월 17일 (수)
+   - 비고: 대기실 및 입실시간 안내는 2024년 1월 12일 (금) 14:00 이후 입학안내 홈페이지에서 조회
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: 2024년 2월 2일 (금) 14:00
+     - 발표: 홈페이지에서 개별 조회
+     - 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령
+     - 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록: 2024년 2월 7일 (수) ~ 13일 (화) (은행마감시간 내)
+     - 발표 및 고지서 교부 내용 동일
+     - 등록장소: 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 1차 발표: 2024년 2월 14일 (수) 09:00
+     - 내용 동일
+   - 충원 합격자 1차 등록: 2024년 2월 14일 (수) 09:00 ~ 16:00
+     - 내용 동일
+   - 충원 합격자 2차 발표: 2024년 2월 15일 (목) 09:00
+     - 내용 동일
+   - 충원 합격자 2차 등록: 2024년 2월 15일 (목) 09:00 ~ 16:00
+     - 내용 동일
+   - 충원 합격자 3차 이후 발표 및 등록: 2024년 2월 15일 (목) 19:00 ~ 2024년 2월 20일 (화) 18시까지
+     - 내용 동일
+이 일정은 일반적인 정시모집 일정이며, 각 전형별 세부사항이나 변경 사항은 입학안내 홈페이지를 통해 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>0.5471683042696182</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 정시모집 일정을 요약하면 다음과 같습니다:
+1. **모집인원 확정 공고**:
+   - 날짜: 2024년 1월 2일 (화)
+   - 비고: 입학안내 홈페이지 공고
+2. **원서접수(인터넷)**:
+   - 시작일: 2024년 1월 3일 (수)
+   - 마감일: 2024년 1월 6일 (토) 18시까지
+   - 참고 사이트: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. **서류 제출**:
+   - 시작일: 2024년 1월 3일 (수)
+   - 마감일: 2024년 1월 12일 (금) 17시까지 도착
+   - 서류 제출 대상: (IV. 전형별 세부 안내 참조)
+     - 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. **&lt;가&gt;군 실기고사 (레저스포츠학과, 태권도학과)**:
+   - 날짜: 2024년 1월 16일 (화)
+   - 비고: 대기실 및 입실시간 안내는 2024년 1월 12일 (금) 14:00 이후 입학안내 홈페이지에서 조회
+5. **&lt;나&gt;군 실기고사 (디자인조형학과, 체육학과)**:
+   - 날짜: 2024년 1월 17일 (수)
+   - 비고: 대기실 및 입실시간 안내는 2024년 1월 12일 (금) 14:00 이후 입학안내 홈페이지에서 조회
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: 2024년 2월 2일 (금) 14:00
+     - 발표: 홈페이지에서 개별 조회
+     - 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령
+     - 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록: 2024년 2월 7일 (수) ~ 13일 (화) (은행마감시간 내)
+     - 발표 및 고지서 교부 내용 동일
+     - 등록장소: 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 1차 발표: 2024년 2월 14일 (수) 09:00
+     - 내용 및 방법 동일
+   - 충원 합격자 1차 등록: 2024년 2월 14일 (수) 09:00 ~ 16:00
+     - 내용 및 방법 동일
+   - 충원 합격자 2차 발표: 2024년 2월 15일 (목) 09:00
+     - 내용 및 방법 동일
+   - 충원 합격자 2차 등록: 2024년 2월 15일 (목) 09:00 ~ 16:00
+     - 내용 및 방법 동일
+   - 충원 합격자 3차 이후 발표: 2024년 2월 15일 (목) 19:00 ~ 2024년 2월 20일 (화) 18시까지
+     - 내용 및 방법 동일
+이 일정은 일반적인 예시이며, 실제 일정은 변경될 수 있으므로 공식 입학 안내 홈페이지를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>0.6487584062954135</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시모집에서 수능 미응시자도 지원이 가능한 전형은 다음과 같습니다:
+1. &lt;가&gt;군 실기/실적(일반학생전형)
+   - 모집단위: 디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과
+   - 이 전형은 수능 점수를 요구하지 않으며 실기 및 서류 평가로 이루어집니다.
+2. &lt;나&gt;군 실기/실적(경기실적우수자전형)
+   - 모집단위: 전 모집단위
+   - 이 전형도 수능 점수가 필요하지 않습니다. 경기실적을 기반으로 평가됩니다.
+3. &lt;나&gt;군 학생부교과(농어촌학생전형), 
+   &lt;나&gt;군 학생부종합(성인학습자(정원내)전형),
+   &lt;나&gt;군 학생부종합(조기취업형계약학과전형)
+   - 이들 전형은 수능 점수가 필요하지 않습니다. 각각의 평가 기준에 따라 지원 가능합니다.
+따라서, 동의대학교 정시모집에서는 위와 같은 4개의 전형에서 수능 미응시자도 지원이 가능합니다.</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>0.03508769655738758</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>2024학년도 데이터를 바탕으로, 전자공학과의 충원 합격자는 36명이었습니다. 
+이는 다음과 같은 정보에서 추출할 수 있습니다:
+전형일정에서:
+- 충원 합격 (후보순위)은 36이며,
+모집인원 및 지원자 정보에서:
+- 모집 인원은 69명,
+- 지원 인원은 105명,
+- 경쟁률은 1.52,
+- 충원 합격 (후보순위)은 36명
+따라서, 전년도(2023년도)의 데이터를 구체적으로 확인하지 않았습니다만, 2024년도에 전자공학과에서는 3차까지 충원 합격이 이루어졌음을 알 수 있습니다. 
+전년도 데이터가 필요하시다면 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 참조해 보시는 것이 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>0.09019891908725848</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 동의대학교 입학처의 전화번호가 포함되어 있지 않습니다. 웹사이트나 공식 문서를 확인하거나, "https://ipsi.deu.ac.kr/main.do" 주소에 접속하여 최신 정보를 찾아보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>0.3643568028162211</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대한 개별 전화 통보 시, 전화 통화가 되지 않는 경우 다음 방법으로 처리됩니다:
+1. **재통보**: 학교에서는 초기에 전화를 다시 시도하거나 다른 연락 수단을 통해 재통보할 것입니다.
+2. **개인 정보 확인**: 학생의 개인 정보(연락처 등)가 최신인지 확인합니다. 필요하다면 학생이 자신의 연락처 정보를 업데이트하도록 요청할 수 있습니다.
+3. **추가 통지 방법**: 전화 통화가 불가능한 경우, 합격자 발표 및 등록금 납부 관련 정보는 홈페이지에서 개별 조회 가능합니다. 학생은 입학 안내 홈페이지를 통해 자신의 상태를 확인할 수 있습니다.
+4. **입학관리팀 연락**: 학생이 직접 입학관리팀에 문의하여 상황을 설명하고, 필요한 조치를 취하도록 요청할 수 있습니다.
+5. **등록 절차 진행**: 합격자 발표 이후 등록 절차는 홈페이지에서 진행 가능하므로, 학생은 이 과정을 따르도록 안내합니다.
+이러한 절차들을 통해 학교에서는 최대한 합격자에게 정보를 전달하고 필요한 조치를 취할 수 있도록 지원합니다.</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>0.0623238029276009</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>6년 과정의 농어촌학생전형 지원 시 다음과 같은 서류가 필요합니다:
+1. 지원자 본인의 가족관계증명서 1부
+2. 지원자 본인, 부모의 주민등록초본 각 1부 (총 3부)
+3. 중학교 학교생활기록부 1부 
+   ※ 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+4. 고등학교 학교생활기록부 1부
+   ※ 부모가 사망한 경우, 사망한 부 또는 모의 기본증명서 1부(기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부)를 추가로 제출 
+   ※ 부모가 이혼한 경우, 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부를 추가 제출
+12년 과정의 농어촌학생전형 지원 시 다음과 같은 서류가 필요합니다:
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부 
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부
+   ※ 중·고등학교 재학 시 부모 모두 농어촌(읍∙면)지역에서 거주한 자는 '6년과정' 서류제출 가능 
+   ※ 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>0.5397143519083913</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형 지원 시 제출해야 하는 서류는 다음과 같습니다:
+- 고교 졸업증명서 (1부)
+- 지원자 본인 초본 (1부) 
+- 부초본 (1부)
+- 모초본 (1부)
+총 4부의 초본을 제출해야 합니다.
+이 외에도 추가로 제출해야 할 서류는 없습니다. 단, 이 서류들은 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급받아야 합니다.
+참고로 6년 과정의 경우는 다음과 같은 서류를 제출해야 합니다:
+- 지원자 본인의 가족관계증명서 (1부)
+- 지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+- 중학교 학교생활기록부 (1부)
+- 고등학교 학교생활기록부 (1부)
+이 서류들은 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급받아야 합니다.</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>0.3391240270025431</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보를 바탕으로, 해당 대학교에서는 정시모집의 경우 저소득 기회균등 전형을 실시하지 않는 것으로 보입니다. 주요 변경사항 중에서 관련 내용을 찾지 못했으며, 일반적으로 학교마다 전형방법이 다르므로 공식 입학전형 안내서나 대학교 웹사이트를 확인하는 것이 가장 정확한 정보를 얻는 방법일 것입니다.</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>0.1457055709297211</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>一般来说，如果两门社会学考科的成绩分别是2和3等第，那么它们的平均分是2.5。在这种情况下，大多数大学会采用四舍五入的原则来处理小数点后的成绩。
+对于您提到的情况（2和3等第），通常会有以下几种处理方式之一：
+1. **四舍五入**：将2.5四舍五入到最接近的整数，即3。这是最常见的做法。
+2. **向下取整**：直接取2.5的小数点前的部分，即2。
+具体采用哪种方法取决于大学的规定。建议您查看东国大学的具体政策或咨询学校的招生办公室以获取准确信息。
+如果东国大学规定使用四舍五入的方法，则2和3等第的平均分会是3；如果是向下取整，则为2。</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>0.0173107003851418</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>2024학년도 정시 모집의 경우, 충원 합격자 발표는 총 3차로 이루어집니다.
+1. **1차 충원 합격자 발표 및 등록**:
+   - 일정: 2024. 02. 14.(수) 09:00
+   - 내용: 1차 충원 합격자 발표
+2. **1차 충원 합격자 등록**:
+   - 일정: 2024. 02. 14.(수) 09:00~16:00
+   - 내용: 1차 충원 합격자 등록
+3. **2차 충원 합격자 발표 및 등록**:
+   - 일정: 
+     - 2024. 02. 15.(목) 09:00 (발표)
+     - 2024. 02. 15.(목) 09:00~16:00 (등록)
+4. **3차 충원 합격자 발표 및 등록**:
+   - 일정: 
+     - 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 (발표)
+     - 개별 전화 통보 시 안내 (등록)
+따라서, 정시 충원 합격자 발표는 총 3차로 이루어지며, 각 차례별로 일정이 다르게 설정되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>0.1744616360358897</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要考虑以下几个因素：
+1. **e비즈니스학과의 모집인원 및 지원자 수**：根据您提供的信息，该专业有10个名额，但支持人数为105人。这意味着竞争非常激烈。
+2. **성적 평균 및 분산**：从给定的数据来看，国语+数学+探究（2科）（加分后）标准转换总分的平均值是286.64，标准差是21.80。这表明成绩分布较广。
+3. **英语等级和科目成绩**：您的英语等级为4.6，属于较好的水平；而国语+数学+探究的成绩为4.6，也相对较好。
+4. **加权分数计算**：根据给定的公式（国语 + 数学 + 探究（2科）（加分后）标准转换总分 * 0.75 + 英语等级点数 * 0.25），我们可以进行估算。假设您的探究成绩为4.6，那么：
+   - 国语+数学+探究（2科）（加分后）标准转换总分为286.64
+   - 英语等级为4.6，对应139分
+   计算公式：(286.64 * 0.75) + (139 * 0.25)
+   = 214.98 + 34.75
+   ≈ 249.73
+5. **排名情况**：虽然没有具体的数据，但可以推测您的成绩在支持者中处于较好水平。如果其他考生的成绩普遍较低，则您有可能获得较好的排名。
+综上所述，尽管e비즈니스学专业的竞争非常激烈，但根据提供的信息来看，您的成绩（尤其是英语和综合科目）相对较好，因此理论上是有可能通过加权分数计算后进入该专业的。不过，最终能否录取还需考虑其他考生的具体情况以及学校具体的录取规则。
+建议您关注学校的详细录取分数线及排名情况，并做好充分准备以应对可能的竞争压力。</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>0.123637828905131</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 e비즈니스학과의 수능 경쟁률 및 평균 점수를 살펴보겠습니다.
+- 모집 인원: 15명
+- 지원 인원: 95명
+- 경쟁률: 6.33 (약 6.33대 1)
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 326.89
+- 영어 등급의 평균: 2.88
+이러한 데이터를 바탕으로 정시 등급 5.3에 해당하는 수능 점수가 대략 400점 정도일 것으로 추정됩니다.
+e비즈니스학과의 최소 경쟁률은 약 6.33대 1이며, 평균 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합이 326.89입니다.
+정시 등급 5.3에 해당하는 수능 점수가 약 400점으로 추정되면, 이는 평균 점수보다 높은 수준이며 경쟁률도 상대적으로 낮습니다. 따라서 정시 등급 5.3이면 e비즈니스학과에 최초 합격 가능성은 있습니다만, 확실한 것은 아닙니다.
+최종 결정에는 여러 요소가 포함되므로, 정확한 예측을 위해서는 동의대학교 입학사정관들의 평가 기준 및 기타 전형 방식 등을 고려해야 합니다. 따라서 최초 합격 가능성은 있으나, 확실하지 않은 상황입니다.
+추가적으로 지원 시에는 다음과 같은 점들을 고려해보세요:
+1. 개인의 전공 적합성
+2. 추가 면접 등 다른 평가 요소
+3. 동기부여 및 진로 계획
+자세한 정보는 동의대학교 입학처 웹사이트나 학교 관계자에게 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>0.06952791915089328</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要考虑以下几个因素：
+1. **你的成绩**：你提到的平均标准转换总分是426.25，这在e비즈니스학과（电子商务学部）中属于较高水平。根据之前的数据，该专业的竞争率为8.90，录取人数为31人。
+2. **排名情况**：虽然没有直接提到你的具体排名，但平均分426.25表明你在申请者中的位置应该比较靠前。
+3. **其他因素**：
+   - 面试表现：如果面试中表现出色，可能会增加录取机会。
+   - 个人陈述和推荐信等补充材料的质量也很重要。
+根据这些信息，你的成绩看起来非常有竞争力。在竞争率为8.90的情况下，平均分426.25应该能够让你进入预录取名单（预38名）。然而，最终结果还取决于其他申请者的具体情况。
+建议你：
+- 确认是否有面试环节，并做好充分准备。
+- 关注学校发布的任何补充材料提交要求。
+- 保持积极态度，等待最终结果。</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>0.03186697547174504</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>2024년도 동의대학교 간호학과의 지원 자료를 바탕으로 분석해보겠습니다.
+간호학과는 나군 수능(일반학생전형)으로 모집되며, 해당 전형의 최종 등록자 정보를 보면 다음과 같습니다:
+- 모집인원: 22명
+- 지원 인원: 145명
+- 경쟁률: 6.59
+- 충원 합격 (후보순위): 37명
+성적 분석:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 353.48
+- 영어 등급의 평균: 2.34
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균: 481.70
+이러한 정보를 바탕으로, 성적 3.44는 평균보다 낮은 수준입니다. 그러나 동의대학교 간호학과의 경우 경쟁률이 높고 충원 합격자 수가 많아서 단순히 성적이 낮다고 합격할 확률이 낮다고 단정하기는 어렵습니다.
+결론적으로:
+1. 3.44라는 성적은 평균보다 낮지만, 경쟁률과 모집인원을 고려하면 여전히 합격 가능성은 있습니다.
+2. 수능 점수와 영어 등급이 중요하므로, 이 부분에서 높은 점수를 받았다면 합격 가능성이 더 높아질 수 있습니다.
+3. 다른 지원자들과의 비교 및 전형 요소(학생부 등)가 중요한 역할을 하므로, 모든 자료를 종합적으로 고려해야 합니다.
+따라서, 3.44라는 성적만으로는 확실한 합격 여부를 판단하기 어렵습니다. 추가적인 지원자들의 성적과 학생부 등의 정보를 참고하여 최종 결정을 내리는 것이 좋겠습니다. 필요하다면, 동의대학교 입학처에 문의하거나 전문가의 조언을 구하는 것도 좋은 방법입니다.</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>0.04237585498209013</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과의 수능(일반학생전형) 최종등록자에서, 지원 인원이 145명이고 경쟁률은 6.59이며 충원 합격자는 37명으로 나타났습니다.
+국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 353.48이고, 표준 편차는 4.66입니다. 영어 등급의 평균은 2.34이며, 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균은 481.70이고, 표준 편차는 6.87입니다.
+이러한 통계를 바탕으로 볼 때, 성적이 2.52인 경우 동의대학교 간호학과에 최종합격하기 위해서는 다음과 같은 점들을 고려해야 합니다:
+1. **성적 평균보다 낮음**: 현재 성적이 2.52로, 평균 점수(353.48)보다 상당히 낮습니다.
+2. **영어 등급이 낮음**: 영어 등급의 평균은 2.34로, 지원자들 중에서 비교적 낮은 수준입니다. 이는 간호학과에 합격하기 위한 중요한 요소일 수 있습니다.
+3. **표준 편차 고려**: 표준 편차가 높아서 성적이 평균보다 약간 낮더라도, 일부 지원자들은 더 낮은 점수를 가지고도 합격하였습니다.
+4. **전반적인 경쟁률 및 충원 수**: 6.59의 경쟁률과 37명의 충원 합격자가 있다는 점을 고려하면, 성적이 조금 낮더라도 특별한 이유가 있다면 합격 가능성은 있습니다.
+결론적으로, 성적이 2.52인 경우 간호학과에 최종합격하기는 어렵지만, 다음과 같은 조건들이 충족된다면 가능성이 있을 수 있습니다:
+- **특이성 있는 경험 또는 활동**: 특별한 경험이나 활동을 통해 전공적합성을 증명할 수 있다면 이점을 강조해야 합니다.
+- **면접 성과**: 면접에서 좋은 평가를 받는다면 합격 가능성은 높아질 수 있습니다.
+따라서, 성적이 2.52인 경우에도 최종합격을 위한 추가적인 노력이 필요하며, 지원자 본인이 특별한 경험이나 활동을 가지고 있다면 이를 강조하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>0.008166558393746085</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>3.7이라는 성적은 중간적인 점수로, 간호학과의 경쟁률과 입학사정관들의 평가 기준을 고려해야 합니다.
+1. **경쟁률**: 간호학과는 일반적으로 높은 경쟁률을 가지고 있습니다. 따라서 3.7이라는 성적만으로 합격하기는 어렵습니다.
+2. **입학사정관의 평가**: 정시 성적이 아닌 다른 요소들도 중요하게 고려됩니다:
+   - **면접 성적**: 면접에서 좋은 점수를 받으면 이점이 있습니다.
+   - **학생부 교과성적**: 전반적인 학업 능력이 반영됩니다. 3.7이라는 평균 이상의 성적이면 이 부분은 어느 정도 인정받을 수 있습니다.
+   - **진로 탐색 활동 및 경험**: 진로 관련 활동이나 경험, 자원봉사 등이 있다면 이는 긍정적으로 작용할 수 있습니다.
+   - **추천서**: 교사나 학교 관계자의 추천서가 있다면 도움이 될 수 있습니다.
+3. **추천서와 자기소개서**: 잘 작성된 자기소개서와 추천서는 입학사정관들의 인상을 크게 바꿀 수 있습니다.
+4. **특기사항 및 활동**: 특기사항이나 관련 활동 경험을 잘 기재하면 이점이 될 수 있습니다.
+따라서, 3.7이라는 성적만으로는 합격하기 어렵지만, 위의 요소들을 잘 준비하고 제출한다면 좋은 결과를 얻을 가능성이 있습니다. 
+추천되는 조치:
+- 면접 준비에 충분히 시간을 투자하세요.
+- 자기소개서와 추천서를 잘 작성해 보세요.
+- 진로 관련 활동이나 경험을 자세하게 기재하세요.
+입학사정관들은 학생의 전반적인 능력과 잠재력을 평가하므로, 성적 외에도 다양한 요소들을 잘 준비하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>0.01748000044217629</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 간호학과의 정시 모집요강을 고려해보겠습니다.
+1. **전형 유형**: 간호학과는 일반적으로 실기/실적 위주 전형으로 운영됩니다.
+2. **수능 최저 기준**: 2024년 동의대학교 간호학과의 수능 최저 기준은 2.58입니다.
+따라서, 수능 성적이 2.58인 경우, 해당 학과의 수능 최저 기준을 충족하고 있습니다. 그러나 실기/실적 위주 전형이므로, 실기 점수와 서류 평가 등 다른 요소들도 중요한 역할을 합니다.
+**추천 사항:**
+1. **실기 점수 확인**: 실기 절차나 면접 등의 결과를 잘 준비하고 대비해야 합니다.
+2. **서류 준비**: 서류 평가에서도 좋은 성적을 받을 수 있도록 철저히 준비해야 합니다.
+3. **추천서 및 자기소개서 작성**: 이 부분도 중요하므로 충분한 시간을 들여 잘 작성해보세요.
+결론적으로, 수능 최저 기준만으로는 합격 확률이 높지 않을 수 있지만, 실기/실적 평가에서 좋은 성적을 받으면 합격 가능성은 있습니다. 준비를 철저히 하시면 좋은 결과를 얻을 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>0.07218956125737698</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>为了回答您是否能被游戏学部录取,我需要考虑以下几个因素:
+1. 您的总分是否达到该专业的最低录取分数线。
+2. 您在申请时提交的所有文件是否完整且符合要求。
+3. 您是否满足该专业对考生的具体要求，如年龄、学历等。
+根据您提供的信息，游戏学部(40个名额)已经招满了7名学生。这意味着目前可能没有剩余的名额可以录取新的学生。
+不过,具体能否录取还需要看学校最终的录取结果和是否有退档等情况发生。建议您密切关注学校的官方通知,了解最新的招生情况。
+如果您还有其他问题或需要进一步的信息,请随时告诉我!</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>1.269972204882376e-78</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 게임공학과의 정시 모집요강을 바탕으로 추론해보겠습니다.
+1. **모집단위와 전형**: 게임공학과는 일반학생전형(수능)으로 모집됩니다.
+2. **성적 평균 및 경쟁률**:
+   - 2024년 수능 최종등록자에서 게임공학과의 국어 + 수학 + 탐구 (가산점 포함) 표준 변환 점수 합의 평균은 315.78입니다.
+   - 경쟁률은 6.02이며, 충원 합격자는 4명이었습니다.
+3. **성적 분석**:
+   - 당신의 성적이 4.16이라면, 이는 표준 변환 점수로 대략 315.78보다 약간 높은 수준입니다.
+   - 그러나 정확한 성적을 알기 위해서는 국어, 수학, 탐구 영역별로 실제 점수가 필요합니다.
+4. **경쟁률과 충원 합격자**:
+   - 현재 게임공학과의 경쟁률은 6.02이며, 이는 매우 높습니다.
+   - 충원 합격자는 4명이었으므로, 추가적으로 몇 명을 받을 수 있을지는 불확실합니다.
+5. **추가 합격 가능성**:
+   - 현재의 성적은 평균보다 약간 높지만, 경쟁률이 매우 높기 때문에 추가 합격 확률은 낮습니다.
+   - 그러나 정시 모집에서는 다양한 요인(면접 성과 등)이 고려되기 때문에 완전히 배제되지는 않습니다.
+**결론**: 현재의 성적 4.16은 게임공학과에 추가로 합격할 확률이 매우 낮지만, 정확한 예측은 불가능합니다. 수능 점수뿐만 아니라 면접 등 다른 평가 요소도 고려되기 때문에 최선을 다해 준비하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>0.05319151312216041</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>2024학년도 입학전형의 경우, 정시모집군 변경사항에 따라 경영정보학과의 학생부교과성적 반영방법이 변경되었습니다. 2023년도에는 반영과목 전 모집단위(한의예과 제외) 8과목: 국어, 수학, 영어교과 중 석차등급 상위 8과목 4과목: 8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목 한의예과 : 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목이었으나, 2024년도에는 반영과목 전 모집단위(한의예과 제외) 12과목: 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목 한의예과: 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목으로 변경되었습니다.
+따라서 경영정보학과에 지원하려는 학생이 정시 성적 3.75를 가지고 있다면, 이 성적이 반영되는 과목들 중 상위 등급을 차지하고 있어야 합니다. 2024년도의 경우 12과목 중 상위 등급을 가져야 하므로, 3.75라는 점수는 상위 등급에 해당할 가능성이 있습니다.
+하지만 최종적으로는 학교생활기록부와 성적 등급이 어떻게 반영되는지 확인해야 합니다. 따라서 다음과 같은 절차를 따르시면 도움이 될 것입니다:
+1. **학업성적 확인**: 현재까지의 성적을 정확하게 확인하고, 12과목 중 상위 등급을 차지하는 과목들이 있는지 확인하세요.
+2. **학교생활기록부 확인**: 학교생활기록부를 통해 실제 반영되는 등급이 어떤지 확인하세요.
+3. **입학사정관 면접 준비**: 성적 외에도 학업역량, 전공적합성 등을 잘 준비해두세요.
+만약 12과목 중 상위 등급을 차지하고 있다면, 최초등록자로 가능할 것으로 보입니다. 하지만 확실한 판단을 위해서는 입학처나 관련 홈페이지를 통해 자세한 정보를 확인하는 것이 좋습니다. 
+[입학처 웹사이트](https://ipsi.deu.ac.kr/main.do)를 참조하시면 더 자세한 내용을 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>0.01553937604554282</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要了解一些具体信息：
+1. 经营信息学部（经营信息学科）的录取标准是什么？
+2. 最初注册者指的是什么？是否有特定的要求或限制？
+不过，根据您提供的信息，我们可以做一些推测和分析。
+首先，从您给出的数据来看：
+- 该专业的最终注册者的平均成绩为4.2。
+- 这个成绩在所有科目（国语、数学、探究）的标准化转换分数中处于较高水平。
+如果经营信息学部对最初注册者有类似的要求，并且您的成绩是4.2，那么理论上您有可能成为最初的注册者。但是，具体能否录取还需要考虑其他因素，如：
+- 是否满足特定的专业要求或限制。
+- 学校是否有特别的招生政策或其他选拔标准。
+建议您直接咨询该大学的招生办公室以获取最准确的信息和确认您的资格。他们能够提供具体的指导并告知是否符合最初注册者的条件。</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>0.01898958227064395</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 경영정보학과의 경우, 전형요소 반영비율을 살펴보면 수능 위주로 진행됩니다. 수능 최저기준은 없지만, 평균 성적과 표준편차를 고려할 때 합격 가능성에 대해 판단해볼 수 있습니다.
+- **수능 4개 영역 등급의 평균**: 4.31
+- **수능 4개 영역 등급의 표준 편차**: 0.23
+당신의 성적은 5.33으로, 이는 평균보다 약간 높습니다. 특히 수능 최저기준이 없으므로, 개인적인 경쟁률과 지원자들의 성적 분포를 고려할 때 합격 가능성은 있습니다.
+하지만, 정확한 합격 가능성을 판단하기 위해서는:
+1. **경쟁률**: 2024학년도 지원자의 수와 모집인원을 고려해야 합니다.
+2. **성적 분포**: 지원자들의 성적이 어떻게 분포되어 있는지 확인해야 합니다.
+따라서, 정확한 답변을 얻기 위해서는 동의대학교 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다. 또한, 추가적으로 면접이나 서류평가 등 다른 평가 요소를 고려할 수도 있으므로, 모든 정보를 종합적으로 검토하는 것이 중요합니다.
+추가적인 자세한 정보는 [동의대학교 입학처 웹사이트](https://ipsi.deu.ac.kr/main.do)를 참조하시거나 전화로 문의하시는 것을 권장드립니다.</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>0.06361342765278902</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要考虑以下几个因素：
+1. **目标专业**：东义大学的生物应用工学部（Bio-applied Engineering Department）的具体录取标准。
+2. **成绩对比**：您提到的成绩为3.33，在不同科目中的表现如何？
+3. **往年数据参考**：查看该专业的历年实际录取情况，尤其是最高分、最低分和平均分。
+根据提供的信息：
+- 从整体来看，生物应用工学部的录取分数相对较高。
+- 最低录取标准（如国语+数学+探究科目）的标准转换总分为257.00至318.80之间。
+- 平均成绩在300分以上较为常见。
+您的成绩为3.33，如果这是指的标准化考试分数的话，那么这个分数可能略低于该专业的平均录取线。但是，这并不意味着完全不可能被录取，因为每年的具体情况可能会有所不同，并且还有其他因素如面试、推荐信等也可能影响最终结果。
+建议：
+1. **详细查看专业要求**：确认生物应用工学部的具体录取标准。
+2. **参考往年数据**：了解该专业的历年实际录取分数范围。
+3. **咨询学校招生办公室**：获取更准确的信息和指导。
+综上所述，虽然您的成绩略低于部分年份的平均录取线，但仍有被录取的可能性。建议您详细准备并积极申请。</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>0.0156578960697215</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 방사선학과의 모집요강을 바탕으로 답변 드리겠습니다.
+1. **모집단위 및 지원 가능성**:
+   - 방사선학과는 인문사회과학대학에 속해 있습니다.
+   - 2024학년도 모집인원은 5명이며, 지원 인원이 36명으로 경쟁률이 높습니다 (경쟁률: 7.20).
+   - 평균 등급은 4.87이며, 표준 편차는 0.13입니다.
+2. **성적 분석**:
+   - 현재 등급 4.4는 평균보다 약간 낮습니다.
+   - 하지만 방사선학과의 경쟁률이 높아서 단순히 등급만으로 결정되는 것은 아닙니다. 다른 요소들도 고려됩니다.
+3. **추천사항**:
+   - **전공적합성 평가**: 방사선학과는 전문적인 학문 분야로, 관련 지식이나 경험을 가진 지원자가 유리합니다.
+   - **면접 및 서류평가**: 면접에서는 전공에 대한 이해도와 진정한 관심이 중요합니다. 또한, 서류 평가에서도 학업역량과 전공적합성을 잘 보여줄 수 있어야 합니다.
+   - **추천서나 추천인**: 가능하다면 교사나 관련 분야의 전문가로부터 추천서를 받는 것이 도움이 될 수 있습니다.
+4. **결론**:
+   - 현재 등급으로 방사선학과에 지원하는 것은 가능하지만, 경쟁률이 높아 성공 확률은 낮습니다.
+   - 다른 학과 중에서 자신의 강점을 살릴 수 있는 과목을 고려해 보시는 것도 좋을 것 같습니다.
+결국, 최종 결정은 본인의 진정한 관심과 열정, 그리고 지원 가능한 모든 요소를 종합적으로 판단하여 내려야 합니다.</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>0.02354216641912536</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>2024년 경희대학교 방사선학과의 정시 최종등록자들의 성적 분석을 보면, 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 341.62이고, 표준 편차는 9.80입니다.
+당신이 제시한 점수인 2.66은 이 통계치로 볼 때 상대적으로 낮습니다:
+- 평균보다 약간 낮음 (평균: 341.62, 당신의 점수: 2.66)
+- 표준 편차를 고려하면, 평균에서 약 -30.97표준편차 떨어져 있음
+이 점수로는 경쟁률이 높은 방사선학과에 정시로 합격하기가 어렵다고 볼 수 있습니다. 그러나 입학사정관 전형이나 특기자전형 등 다른 전형을 통해 기회를 얻을 수도 있으니, 다양한 전형을 고려해보는 것이 좋겠습니다.
+또한, 면접 성적과 서류 평가 결과도 중요한 요소이므로, 이 부분에서도 좋은 점수를 받는 것이 유리할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>0.172214033368054</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>3.66의 GPA는 좋은 점수지만, 합격 여부는 여러 요소에 따라 달라집니다. 아래와 같은 요인들을 고려해보세요:
+1. **전형 유형**: 농어촌 전형은 일반적으로 경쟁이 치열할 수 있습니다.
+2. **모집 인원과 지원자 수**: 모집 인원과 지원자의 수에 따라 합격 기준 점수가 달라질 수 있습니다.
+3. **학생부 평가**: 학생부 교과성적 외에도 공동체역량, 학업역량, 전공적합성 등이 평가됩니다. 특히 농어촌 학생에게는 지역적 배려 요인이 중요할 수 있습니다.
+4. **면접 성적**: 면접에서도 좋은 점수를 받으면 유리합니다.
+5. **추천서와 자기소개서**: 이 부분도 중요한 역할을 합니다.
+6. **기타 제출 서류**: 고교 졸업증명서, 부모 초본 등이 필요하므로 정확하게 준비해야 합니다.
+3.66의 GPA는 좋은 성적입니다만, 경쟁률과 모집 인원 등을 고려하면 아직 불확실성이 있습니다. 합격 가능성은 높지만 100% 보장할 수는 없습니다. 
+추천 드리는 것은:
+- 모든 제출 서류를 정확하게 준비하고 확인하세요.
+- 면접을 잘 준비해보세요.
+- 자기소개서와 추천서에서 지역적 배려 요인을 강조해보세요.
+최종 결정은 입학사정관들이 내릴 것이므로, 최선을 다한 지원을 해보시는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>0.1477704976531548</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>25번의 순위는 매우 높은 점수를 요구하는 경우가 많습니다. 그러나 정시 전형에서 붙을 수 있는 확률은 여러 요인에 따라 달라집니다:
+1. 모집단위와 전형방법: 각 모집단위별로 수능 성적과 서류평가 비중이 다르므로, 이에 따른 점수 분포를 고려해야 합니다.
+2. 경쟁률: 해당 모집단위의 경쟁률을 확인해야 합니다. 경쟁률이 높으면 낮은 순위도 어렵게 됩니다.
+3. 개인 성적: 자신의 수능 성적이 전체 성적 분포와 비교해 어느 위치에 있는지 중요합니다.
+4. 서류평가 점수: 일부 전형에서는 서류평가가 중요한 역할을 하므로, 이 부분에서 좋은 평가를 받는 것이 도움이 될 수 있습니다.
+5. 동점자 처리 기준: 동점자 처리 방식도 붙을 확률에 영향을 줍니다.
+현재 정보만으로는 정확한 예측은 어렵습니다. 하지만 25번의 순위는 매우 높은 점수를 요구하므로, 낮은 확률일 것으로 보입니다. 그러나 최선을 다해 준비하고, 가능한 모든 기회를 활용하면 결과가 달라질 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>0.1653774137217504</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 법경찰행정학부의 정시 모집 정보를 바탕으로 추측해보겠습니다:
+1. 전형별 모집인원을 보면 일반전형에서 정원내 모집 인원이 35명입니다.
+2. 수능 최종등록자 통계를 보면:
+   - 경영학과: 평균 국어+수학+탐구(가산점 포함) 표준변환점수 합은 300.68
+   - 회계학과: 평균 국어+수학+탐구(가산점 포함) 표준변환점수 합은 295.86
+   - 경영정보학과: 평균 국어+수학+탐구(가산점 포함) 표준변환점수 합은 313.13
+3. 이들 중 가장 낮은 점수가 경영학과의 300.68입니다.
+따라서 법경찰행정학부를 정시로 안정적으로 들어가려면, 
+- 국어+수학+탐구(가산점 포함) 표준변환점수 합이 300점 이상은 필요할 것으로 보입니다.
+- 영어 등급도 꾸준히 유지해야 합니다.
+하지만 이는 추정치이며, 정확한 점수는 입시 전략과 경쟁률 등 다양한 요인에 따라 달라질 수 있습니다. 
+최종적으로는 동의대학교 입학처나 모의고사 성적 분석 등을 통해 개인별 적합한 목표 점수를 설정하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>0.3553779380400346</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 보육가정상담학과의 정시 모집에서는 다음과 같은 전형이 적용됩니다:
+1. **모집군**: 나군 (학생부종합)
+2. **전형명**: 학생부종합(성인학습자(정원내)전형)
+보육가정상담학과는 이 전형을 통해 모집합니다.
+**학생부종합(성인학습자(정원내)전형)**의 경우, 평균적인 합격 기준은 다음과 같습니다:
+- **고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자**
+- **학생부 종합평가**: 서류(학생부)60% + 면접40%
+**성적 산출 방식**은 다음과 같습니다:
+- 국어 표준점수
+- 수학 표준점수
+- 영어 등급 점수 (등급에 따른 점수)
+- 탐구 표준점수
+**면접 평가**: 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+**정시 성적 산출 예시**:
+- 국어: 104
+- 수학(미적분): 108
+- 영어 등급: 5 (점수: 107)
+- 탐구: 47 + 59 = 106
+이 경우, 합격 가능성은 다음과 같습니다:
+- **국어와 수학**: 상대적으로 높은 점수를 받았습니다.
+- **영어 등급**: 5등급으로 중간 정도의 점수입니다.
+- **탐구 영역**: 두 과목 모두 좋은 성적을 받았습니다.
+**면접 평가**: 학업역량과 전공적합성에 대한 준비가 중요합니다. 지원동기와 학업계획, 전공 적합성을 잘 설명할 수 있어야 합니다.
+따라서, 정시 등급 5.33은 중간 정도의 성적이므로, 충분히 합격 가능성은 있습니다만, 경쟁률과 모집인원 등을 고려하면 높은 경쟁력을 갖춘 지원자들과 함께 평가받을 것입니다.
+결론적으로, **합격 가능성이 있지만, 강한 경쟁력이 필요합니다**. 충분히 준비하고 면접에서도 좋은 성적을 받도록 노력해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>0.03502496818359658</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>3차 충원 합격에 대한 확실한 예측은 어렵지만, 다음과 같은 요인들을 고려해볼 수 있습니다:
+1. 경쟁률: 이전 차수와 비교했을 때, 3차에서는 이미 많은 학생들이 합격하거나 등록을 마쳤기 때문에 경쟁률이 낮아질 가능성이 있습니다.
+2. 평균 점수: 이전 차수의 최초합격자들의 평균 점수가 제공되었는데, 이를 참고하여 자신의 점수가 어느 정도인지 판단할 수 있습니다.
+3. 전형 방식: 동의대학교는 주로 수능 성적을 기반으로 합격자를 선발합니다. 따라서 수능 점수가 높다면 충원 합격 가능성은 높아질 것입니다.
+4. 지원 자격: 자신의 지원 자격과 모집 단위, 전형 요건 등을 다시 확인해보세요. 모든 조건을 충족하고 있다면 더 좋은 결과를 기대할 수 있습니다.
+5. 서류 및 실기 점수: 만약 서류평가나 실기고사가 포함된다면, 이 부분에서도 최선을 다해야 합니다.
+6. 학교 정책: 일부 대학은 충원 합격자에게 추가 면접이나 서류심사를 요구할 수 있으므로, 이 점도 고려해보세요.
+결론적으로, 예비 12번으로서는 아직 가능성은 남아 있습니다. 하지만 확실한 것은 아니며, 최선을 다하고 기다리는 것이 좋겠습니다. 학교 입학처나 관련 홈페이지를 통해 추가 정보를 확인하는 것도 도움이 될 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>0.2452505883216485</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>4.75라는 수능 영어 등급은 상당히 높은 점수입니다. 한국의 대다수 고등학교 학생들이 영어 수능에서 얻을 수 있는 최고점이기도 합니다. 이와 같은 높은 성적을 가지고 있다면, 유아교육학과에 지원하는 것은 가능성이 있습니다.
+유아교육학과는 일반적으로 인문사회과학 분야의 학과로, 전형 방식은 다양하지만 대부분 수능 점수를 기준으로 합니다. 특히, 교직 관련 학과에서는 영어 실력도 중요하게 평가받을 수 있습니다. 따라서 4.75라는 높은 영어 성적은 유리한 요소로 작용할 것입니다.
+그러나 유아교육학과의 경쟁률이나 모집인원, 지원자의 전체적인 성적 분포 등을 고려해야 합니다. 이 학과는 대체적으로 인기 있는 학과이므로 경쟁률이 높을 수 있습니다. 따라서:
+1. **경쟁률 확인**: 해당 학과의 2024학년도 최종 등록자들의 성적 분포를 확인해 보세요.
+2. **모집인원**: 모집 인원이 적다면 경쟁률은 높을 수 있습니다.
+3. **전체 지원자의 성적**: 전체 지원자의 성적이 높다면, 4.75라는 점수로 충분히 합격할 가능성은 있지만, 여전히 경쟁이 치열할 것입니다.
+결론적으로, 4.75라는 높은 영어 등급을 가지고 있다면 유아교육학과에 지원하는 것은 가능성이 있습니다만, 최종 결정을 내리기 위해서는 상세한 정보를 확인하고 자신의 위치를 정확히 파악해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>0.1790831641507623</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 보육가정상담학과 나군 수능(일반학생전형)에 대한 정보를 바탕으로 답변 드리겠습니다.
+- **모집인원 및 지원자 수**: 
+  - 모집 인원은 13명입니다.
+  - 지원 인원은 24명이며, 경쟁률이 약 1.85:1입니다.
+- **최종등록자의 성적 분석**:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 304.70이며, 표준 편차는 15.86입니다.
+  - 영어 등급의 평균은 4.19이며, 표준 편차는 0.28입니다.
+- **성적 비교**:
+  - 제시된 성적(4.16)은 현재 평균보다 약간 낮습니다.
+  - 하지만 표준 편차가 상대적으로 작으므로, 동일한 등급 범위 내에서는 경쟁력이 있을 수 있습니다.
+- **합격 가능성**:
+  - 경쟁률이 1.85:1로 낮은 편이며, 지원자 중에서 상위 절반 정도만 합격합니다.
+  - 성적이 약간 낮더라도, 다른 요인(면접 성적 등)을 고려하면 합격 가능성은 있습니다.
+- **추천**:
+  - 면접 준비를 철저히 하세요. 면접에서는 학업역량과 전공 적합성 등을 평가하므로 지원 동기와 학업 계획, 전공에 대한 이해도 등을 잘 준비해야 합니다.
+  - 서류 제출 시 진위 여부 검증을 위해 작성된 면접 질문지를 활용하여 철저히 준비하세요.
+결론적으로, 성적이 약간 낮더라도 경쟁률이 낮고, 다른 평가 요소를 잘 준비한다면 합격 가능성은 있습니다.</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>0.05152862346863545</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>2024학년도 서울대학교의 정시모집에서 소프트웨어융합학과에 지원 가능한 정보를 바탕으로 답변 드리겠습니다.
+1. **지원 가능 여부**: 
+   - 소프트웨어융합학과는 일반학생전형을 통해 정시모집이 진행됩니다.
+2. **평균 등급 요구**:
+   - 2024학년도 수능 최종등록자에서 소프트웨어공학부의 평균 영어 등급은 약 3.77이며, 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균은 434.70입니다.
+   - 이는 일반적으로 경쟁률이 높은 학과로 볼 때, 평균 이상의 성적을 보여줘야 하는 것으로 판단됩니다.
+따라서, 소프트웨어융합학과를 정시로 지원하려면 다음과 같은 점수를 목표로 설정하는 것이 좋습니다:
+- **영어 등급**: 3.77 이상
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 430점 이상
+이러한 수치는 평균적인 수준이며, 경쟁률이 높아질수록 더 높은 점수가 필요할 수 있습니다. 따라서 개인의 성적과 목표를 고려하여 적절한 대비를 해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>2.12308612226507e-07</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>학생부종합전형의 경우, 면접 점수와 서류 평가 점수가 각각 중요하게 고려됩니다. 특히 소프트웨어융합학과는 공학 계열이므로, 학업역량과 전공적합성에 대한 내용을 중점적으로 보게 될 것입니다.
+1. **면접 준비**:
+   - **학업역량**: 과제 해결 능력, 프로젝트 참여 경험 등을 강조해야 합니다.
+   - **전공적합성**: 진로 탐색 활동과 관련된 경험을 이야기해보세요. 예를 들어, 특정 프로그램이나 대회에서의 성취 등.
+2. **서류 준비**:
+   - **고교 학교생활기록부**: 이는 필수 서류입니다.
+   - **검정고시출신자**: 검정고시 합격증서 사본 또는 합격증명서 1부, 검정고시 성적증명서 1부를 제출해야 합니다.
+   - **외국고교 졸업(예정)자**: 공증받은 외국고교 졸업증명서 1부와 성적증명서 1부를 제출해야 합니다.
+**추천 서류 준비 내용**:
+- **학술 활동 및 프로젝트 참여 경험**: 이는 면접에서 자신의 학업역량을 보여주는 중요한 부분입니다.
+- **진로 탐색 활동**: 특정 프로그램이나 대회에서의 성취, 관련 활동 등을 강조해야 합니다.
+**준비 방법**:
+1. **면접 준비**:
+   - 지원 동기와 입학 후 학업 계획을 이야기해보세요.
+   - 과제 해결 능력과 프로젝트 참여 경험 등을 강조하세요.
+2. **서류 준비**:
+   - 고교 학교생활기록부 1부를 제출해야 합니다.
+   - 검정고시 합격증서 사본 또는 합격증명서 1부, 검정고시 성적증명서 1부를 제출해야 합니다.
+이러한 내용을 바탕으로 면접과 서류 평가 점수를 모두 고려하여 최종 결정을 내리게 될 것입니다.</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>0.003644130402864692</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 소프리웨어공학과의 수능(일반학생전형) 최초합격자의 성적 분석을 통해, 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균은 313.00이며, 영어 등급의 평균은 3.80입니다.
+당신이 제시한 성적인 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합이 4.08이고, 영어 등급이 3.60으로 보니, 다음과 같은 결론을 내릴 수 있습니다:
+1. **국어 + 수학 + 탐구(2개) 성적**: 제시하신 4.08은 평균치보다 약간 높습니다. 이는 좋은 점수로, 경쟁률이 낮아진 경우나 지원 인원이 적은 경우에는 충분히 합격 가능성이 있습니다.
+2. **영어 성적**: 제시하신 3.60은 평균치보다 약간 낮습니다. 이는 소프트웨어공학과의 영어 등급 평균(3.80)에 비해 약간 부족합니다.
+따라서, 다음과 같은 조건들이 만족된다면 합격 가능성은 높아집니다:
+- 지원 인원이 적거나 경쟁률이 낮아진 경우
+- 다른 전형에서 좋은 성적을 거둔 경우 (예: 실기/실적 등)
+- 입학사정관의 평가를 받는 경우, 개인적인 특성이나 경험 등을 고려받을 수 있습니다
+결론적으로, 제시하신 성적이 소프트웨어공학과 최초합격자로 합격할 가능성은 있으나, 경쟁률과 지원 인원 등 여러 요인에 따라 결정될 수 있습니다. 따라서 추가적인 정보와 전략이 필요할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>0.1411596153034795</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>2024학년도 모집단위별 지원 및 합격 현황을 보면, 소프트웨어융합학과는 조기취업형계약학과전형에서 정원외로 모집되고 있습니다. 이 전형의 경우, 평균 등급이 5등급으로 나타나고 있습니다.
+하지만 일반학생전형에서는 다음과 같은 정보가 주어지지 않았습니다:
+1. 일반학생전형에서 소프트웨어융합학과에 대한 지원 및 합격자 통계가 제공되지 않았습니다.
+2. 정시모집군 (다)로 분류되어 있는 것으로 보이지만, 해당 전형의 세부 정보는 제시되지 않았습니다.
+따라서, 정확한 평균 등급을 판단하기 위해서는:
+1. 2024학년도 소프트웨어융합학과 일반학생전형 모집단위별 지원 및 합격자 통계를 확인해야 합니다.
+2. 해당 전형의 세부 평가 기준, 전형요소 반영비율 등을 고려해야 합니다.
+현재 정보만으로는 정시모집군 (다)에서 5등급을 기준으로 소프트웨어융합학과에 지원하기 어렵다고 판단할 수 있습니다. 더 자세한 정보를 얻기 위해서는 대학 입학처나 공식 홈페이지를 참조하시거나, 학교 관계자에게 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>0.272147523330157</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 신소재공학과의 모집요강을 보면, 학생부종합 평가에서 다음과 같은 특징이 있습니다:
+1. **진로선택과목 성적 반영**:
+   - 전 모집단위(한의예과 제외): 진로선택과목 중 최대 2과목 이내를 반영 가능합니다.
+   - 한의예과: 모든 진로선택과목을 반영합니다.
+2. **진로선택과목 성적 반영 등급**:
+   - A: 1등급
+   - B: 3등급
+   - C: 5등급
+3. **학생부 교과성적 반영**:
+   - 전 모집단위(한의예과 제외): 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목을 반영합니다.
+   - 한의예과: 모든 교과를 반영합니다.
+4. **학생부교과 성적 평균 등급**:
+   - 4.28은 좋은 점수입니다. 신소재공학과는 일반적으로 높은 학생부 성적이 요구되므로, 이 정도의 성적은 충분히 경쟁력을 갖추고 있습니다.
+5. **전형요소 반영비율**:
+   - 서류(학생부) 60%
+   - 면접 40%
+이러한 요인들을 고려할 때, 4.28의 성적은 신소재공학과에 지원하는 데 충분히 경쟁력을 갖추고 있습니다. 그러나 최종 합격 여부는 서류 평가와 면접 등 다양한 요소를 종합적으로 판단하기 때문에, 다음과 같은 준비가 필요합니다:
+- **학생부 성적**을 잘 반영할 수 있는 서류 제출
+- **면접 준비**: 지원 동기, 전공 적합성 등을 명확하게 준비해야 합니다.
+따라서 4.28의 성적이 신소재공학과에 충분히 경쟁력을 갖추고 있으나, 최종 합격 여부는 면접 등 다른 요소와 함께 종합적으로 판단됩니다.</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>0.1142478923187756</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>2024년 입학 전형에서 수능 일반학생전형으로 지원하는 경우, 자기소개서는 필수적으로 포함해야 합니다. 수능 위주로 전형이 진행되므로 자기소개서는 학업계획과 지원동기 등을 논의하면서 작성해야 합니다.
+자기소개서 작성 시 고려할 내용:
+1. 지원 동기와 학업 계획:
+   - 왜 해당 학과를 선택했는지
+   - 입학 후 어떤 목표를 세웠는지
+2. 학업 역량 및 전공 적합성:
+   - 과목별 성적 추이
+   - 관련 활동이나 경험
+3. 진로 탐색 능력:
+   - 지원 계열에 대한 관심과 이해
+   - 진로 탐색 활동을 통한 성장과정과 결과
+4. 문제 해결 능력:
+   - 학업 문제에 대한 원인 탐색과 해결 방안 마련 및 노력
+자기소개서는 서류평가와 면접평가에서 중요한 역할을 합니다. 따라서 작성 시 다음과 같은 내용들을 포함해야 합니다:
+- 지원 동기와 학업 계획
+- 학업 역량 및 전공 적합성
+- 진로 탐색 능력
+- 문제 해결 능력
+자기소개서는 서류평가에서 합격을 위한 필수 요소이므로 신중하게 작성해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>7.492408097372814e-08</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>4.5라는 점수는 상당히 높은 점수입니다. 하지만 추가모집에 합격할 확률을 판단하기 위해서는 몇 가지 요소를 고려해야 합니다:
+1. 모집단위와 전형별 경쟁률: 각 단과대학 및 계열, 모집단위별로 경쟁률이 다르므로 이를 확인해야 합니다.
+2. 수능 성적 분포: 동의대학교 전체 지원자의 수능 점수 평균과 표준편차를 파악해 보세요. 
+3. 추가모집 규모: 해당 학과에서 추가모집하는 인원 수와 선발 기준을 확인하세요.
+4. 서류평가 결과: 일부 전형에서는 수능 성적 외에 서류평가도 중요하므로 이를 고려해야 합니다.
+5. 면접 등 추가 평가 요소: 필요시면 면접 등의 추가 평가 과정에서 좋은 인상을 줄 수 있도록 준비하세요.
+6. 학교별 특성: 동의대학교의 전반적인 입학 경쟁 상황과 모집 정원 등을 고려해야 합니다.
+4.5라는 점수는 높지만, 최종 결정은 여러 요소가综上所述，该学生的4.5分成绩在一定程度上有竞争力，但最终能否被录取还需综合考虑多个因素。</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>0.3265532794164865</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 신소재공학과와 분자나노공학과의 모집인원과 지원 인원을 보면, 경쟁률이 1.45입니다. 이는 상대적으로 낮은 경쟁률을 보여주며, 수능 점수만으로도 합격 가능성이 높아 보입니다.
+수능(일반학생전형) 최종등록자에서 단과대학은 공과대학이며, 2024학년도 모집단위은 신소재공학과, 분자나노공학과이며, 모집 인원은 56이며, 지원 인원은 81이며, 경쟁률은 1.45입니다.
+따라서, 이 데이터만으로는 정확한 등급을 예측하기 어렵지만, 대략적으로 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균인 271.64와 영어 등급의 평균인 5.06을 기준으로 지원하는 것이 좋을 것 같습니다.
+정확한 합격 가능 등급은 개인의 성적, 경쟁률 변화 등을 고려해야 하므로, 최종 결정을 위해서는 동의대학교 입학처 웹사이트나 전문가와 상담하는 것을 추천드립니다. https://ipsi.deu.ac.kr/main.do</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>0.120261404408583</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>2023년 동의대학교 신소재공학과의 최종 등록자의 표준 변환 점수 평균이 448.56점으로, 작년보다 약간 높게 나왔습니다. 하지만 정시 모집단위별로 경쟁률이나 충원 합격자 수가 달라지므로, 특정 단과대학의 표준 변환 점수가 작년에 비해 소폭 변동될 가능성은 있습니다.
+447점이 작년보다 약간 낮게 나온다면, 이는 다음과 같은 요인들로 인한 것입니다:
+1. 경쟁률 상승: 다른 학생들이 더 높은 점수를 받았을 수 있습니다.
+2. 모집 인원 감소: 충원 합격자 수가 작년보다 줄어들었을 수도 있습니다.
+3. 지원 인원 증가: 지원한 학생들의 평균 점수가 상승했을 가능성도 있습니다.
+그러나 1점 차이만으로는 큰 변화를 의미하지 않으므로, 447점이 작년보다 약간 낮게 나온다면 그 정도의 변동은 가능성이 있습니다. 하지만 확실한 예측은 어렵습니다. 
+결론적으로, 작년과 비슷하거나 약간 높아질 가능성도 있지만, 정확한 결과는 최종 등록자들의 점수가 결정될 때까지 알 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>0.1065505564119889</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>4.3 등급대의 수능 성적이 동의대학교 신소재공학과에서 예상되는 4.1~4.2 등급대로 변환된다면, 이는 상당히 낮은 등급입니다. 일반적으로 동의대학교 신소재공학과는 경쟁률이 높고, 합격 기준도 높습니다.
+다음은 몇 가지 고려사항입니다:
+1. **경쟁률**: 동의대학교 신소재공학과의 경쟁률은 매우 높습니다. 4.3 등급대는 상당히 낮은 수준으로, 이 정도 성적만으로는 충분한 확률로 합격을 보장하기 어렵습니다.
+2. **전형방법**: 일반학생전형의 경우, 수능 점수 외에도 다른 요소들도 고려됩니다. 따라서 단순히 등급만으로 판단하기보다는 전반적인 지원 자질과 경쟁력을 종합적으로 평가해야 합니다.
+3. **추천서 및 자기소개서**: 이 부분이 중요합니다. 좋은 추천서와 잘 작성된 자기소개서는 합격에 큰 도움이 될 수 있습니다.
+4. **실기/특기사항**: 일부 전형에서는 실기나 특기사항을 요구하기도 합니다. 이 부분에서 자신만의 강점을 보여줄 수 있다면 유리할 수 있습니다.
+5. **추가 지원**: 4.3 등급대라면, 다른 대학이나 학과에서도 고려해볼 만합니다. 경쟁률이 낮은 곳에서는 더 높은 확률로 합격할 수 있습니다.
+결론적으로, 현재의 성적만으로는 신소재공학과에 충분한 확률로 합격하기 어렵다고 볼 수 있습니다. 그러나 전반적인 지원 자질을 고려하면 다른 대학이나 학과에서도 좋은 결과를 얻을 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>0.2639972656621208</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>2024년 동국대학교 인공지능학과의 수능(일반학생전형) 최종등록자의 성적 정보를 요약하면 다음과 같습니다:
+- **국어 + 수학 + 탐구 (가산점 포함) 표준 변환 점수 합의 평균**: 308.58
+- **국어 + 수학 + 탐구 (가산점 포함) 표준 변환 점수 합의 표준 편차**: 10.96
+- **영어 등급의 평균**: 3.66
+- **영어 등급의 표준 편차**: 1.37
+- **수능 4개 영역 등급의 평균**: 4.53
+- **수능 4개 영역 등급의 표준 편차**: 0.36
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균**: 426.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 표준 편차**: 7.46
+이 정보는 전체 지원자의 성적 분포를 나타내며, 평균적인 수준을 이해하는 데 도움이 됩니다. 하지만 개인의 성적이 이 평균치와 얼마나 가까운지 확인하려면 자신의 실적과 비교해야 합니다.
+또한 동국대학교 인공지능학과는 경쟁률이 높은 학과 중 하나로 알려져 있습니다 (8.90), 따라서 최대한 높은 성적이 필요할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>0.4359582418165194</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>5.27이라는 수능 등급은 상당히 높은 점수입니다. 각 학과별로 모집인원과 경쟁률이 다르므로, 정확한 답변을 위해서는 몇 가지 정보가 필요합니다:
+1. **모집단위와 전형명**: 어떤 단과대학과 모집단위를 지원하는지 확인해야 합니다.
+2. **수능 반영 영역**: 국어, 수학, 영어 등급이 어떻게 반영되는지 확인해야 합니다.
+일반적으로 동의대학교의 정시모집에서는 수능 성적이 중요한 요소로 작용합니다. 5.27이라는 점수는 대부분의 학과에서 좋은 성적을 보여줄 것입니다. 그러나 경쟁률과 모집인원에 따라 결과가 달라질 수 있습니다.
+예를 들어, 상경대학의 경영학과나 회계학과 등에서는 5.27 이상의 점수가 충분히 경쟁력을 갖추고 있을 가능성이 높습니다. 그러나 다른 학과들(예: 공과대학의 기계공학과)에서는 더 높은 점수를 요구할 수 있습니다.
+따라서, 정확한 답변을 위해서는 위에서 언급한 정보가 필요합니다. 만약 구체적인 모집단위와 전형명이 주어진다면, 해당 정보를 바탕으로 좀 더 정확하게 판단할 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>0.07935087452099009</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 상당히 높은 수준입니다. 하지만 소프트웨어공학부에 지원할 때 다음과 같은 요소들을 고려해야 합니다:
+1. 모집인원과 지원자 수: 소프트웨어공학부의 모집인원이 많지 않으므로 경쟁률이 높을 가능성이 큽니다.
+2. 성적 반영 비율: 2024학년도에는 학생부종합(조기취업형계약학과전형)에서 서류 60% + 면접 40%로 구성되어 있습니다. 이 중 서류 평가에서는 교과성적이 중요한 요소입니다.
+3. 교과 성적 반영: 
+   - 전 모집단위(한의예과 제외) 12과목 중 석차등급 상위 12과목
+   - 한의예과는 전과목 반영
+4. 학생부 종합 평가: 면접에서 교과성적을 바탕으로 질문이 이루어질 수 있습니다.
+5. 지원자들의 성적 분포:
+   - 모집인원 30명, 지원 인원 146명
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 330.11
+   - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균은 450.71
+이러한 상황을 고려하면:
+- 4.2라는 성적은 매우 높습니다.
+- 경쟁률이 높아서 당락을 결정짓는 요인이 될 수 있습니다.
+- 교과성적이 좋다면 합격 가능성은 있지만, 여전히 높은 경쟁률을 고려해야 합니다.
+결론적으로 4.2라는 성적은 좋은 기반일 것입니다만, 실제 합격 가능성을 판단하기 위해서는 모집인원, 지원자 수, 그리고 다른 지원자의 성적 분포 등을 종합적으로 고려해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D297" t="n">
+        <v>0.03377266534194434</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>3.92라는 표준점수를 가지고 화학환경공학부(화학공학과, 환경공학과, 응용화학과)의 정시 모집단위에 지원하는 것은 가능한데, 실제 합격 가능성은 여러 요인에 따라 달라질 수 있습니다.
+1. **모집인원 및 경쟁률**: 화학환경공학부는 각각 화학공학과, 환경공학과, 응용화학과로 분리되어 있으므로 모집인원이 다르게 설정될 수 있습니다. 또한, 이들 학과의 경쟁률은 다를 수 있으며, 3.92라는 점수만으로는 정확한 경쟁률을 판단하기 어렵습니다.
+2. **성적 산출방법**: 동의대학교의 성적 산출 방법에 따라 국어, 수학, 영어, 탐구 등급점수와 표준점수를 반영합니다. 3.92는 대체로 좋은 점수이지만, 각 학과별로 요구하는 성적이 다르므로 정확한 판단을 위해서는 해당 학과의 최소 성적 기준을 확인해야 합니다.
+3. **전형요소**: 화학환경공학부는 일반적으로 학업역량, 전공적합성 등을 평가하므로, 지원동기와 학업계획, 관련 활동 경험 등이 중요합니다. 서류평가와 면접에서도 좋은 성적을 받았다면 추가적인 경쟁력을 갖추게 될 수 있습니다.
+4. **추천서 및 추천인**: 일부 전형에서는 추천서나 추천인이 필요할 수 있으므로, 이 부분도 고려해야 합니다.
+5. **기타 요인**: 지원자의 개인특성, 학교생활기록부의 내용 등도 중요한 요소로 작용할 수 있습니다.
+따라서 3.92라는 점수만으로는 확실한 판단이 어렵습니다. 동의대학교의 공식 홈페이지나 입학처에 문의하여 해당 학과의 최신 모집요강을 확인하고, 필요하다면 전문가와 상담하는 것이 좋습니다. 또한, 다른 지원자들의 성적 분포를 참고하여 자신의 위치를 파악해보는 것도 도움이 될 것입니다.</t>
+        </is>
+      </c>
+      <c r="D298" t="n">
+        <v>0.03252994842146689</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 화학환경공학과의 경우, 수능 일반학생전형을 통해 지원이 가능한데, 지원 가능 여부는 다음과 같은 요인들에 따라 결정됩니다:
+1. **모집단위**: 화학환경공학과는 공과대학 소속입니다.
+2. **수능 성적**: 4.25 등급은 수능 점수가 상당히 높습니다. 평균적으로 3.0 이상의 수능 점수를 요구하는 경우가 많으므로, 이 정도 점수는 충분히 경쟁력을 갖추고 있습니다.
+3. **모집군**: 화학환경공학과는 일반학생전형으로 지원 가능하며, 해당 전형은 가군 또는 나군에 속합니다. 수능 성적 반영방법은 각 25%씩 국어, 수학, 영어, 탐구 등급을 반영합니다.
+4. **고교유형별 지원자격**: 화학환경공학과는 일반고, 자율고, 특수목적고(예: 과학고, 국제고, 외국어고), 특성화고, 영재학교, 학력인정고, 방송통신고, 각종학교 등 대부분의 고교유형에서 지원이 가능합니다. 검정고시나 외국고는 지원 불가능합니다.
+5. **전형명**: 화학환경공학과는 수능 일반학생전형으로 지원할 수 있습니다.
+따라서, 4.25 등급의 수능 점수로 화학환경공학과를 지원하는 것은 가능하며 경쟁력을 갖추고 있습니다. 다만, 실제 합격 가능성은 모집인원, 지원자 수, 다른 지원자의 성적 등 다양한 요인에 따라 달라질 수 있으므로, 최종 결정을 내리기 전까지는 정확한 정보를 확인하는 것이 좋습니다.
+추가적으로, 동의대학교의 경우 특정 전형이나 단과대학별로 지원 자격이 조금씩 다를 수 있으므로, 공식 입학처 웹사이트나 학교 관계자에게 직접 문의하여 최신 및 정확한 정보를 얻는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
+        <v>0.06444890387346112</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 일반적으로 좋은 성적입니다만, 정시 합격 여부는 여러 요소에 따라 달라집니다:
+1. 모집인원과 지원자 수: 영화학과의 모집인원과 지원자의 수에 따라 경쟁률이 결정됩니다.
+2. 전형방법: 나군 수능(일반학생전형)으로 지원하셨다면, 수능 점수만 반영되므로 성적이 중요합니다.
+3. 합격기준: 각 대학의 합격 기준 점수가 다르므로 이를 확인해야 합니다.
+4. 전형요소 비율: 실기/실적(일반학생전형)이라면 실기 성적도 고려됩니다.
+5. 동점자 처리 기준: 동점자가 발생할 경우 어떻게 처리되는지 중요합니다.
+6. 경쟁률: 현재의 경쟁률을 확인하여 자신의 위치를 파악해야 합니다.
+추천 사항:
+1. 대학 홈페이지에서 해당 학과의 정시 모집요강을 꼭 확인하세요.
+2. 최근 몇 년간의 합격자 성적을 참고해보세요.
+3. 동점자 처리 기준도 확인하시고, 필요하다면 입학처에 문의해 보세요.
+4. 현재 경쟁률이 높다면 추가 준비나 다른 전형을 고려해볼 수도 있습니다.
+정확한 답변은 학교별로 다르므로, 해당 대학 입학처와 직접 상담하는 것이 가장 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D300" t="n">
+        <v>0.1648319544056026</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>以下是关于面试流程的信息：
+나군 학생부종합(조기취업형계약학과전형) - 정원외 면접평가 방법에서 제공된 면접 절차는如下是关于面试流程的信息：
+1. 在候考室等待 (①대기실 입실)
+2. 身份确认 (②신분 확인)
+3. 移动到考场前 (③고사장 앞 이동)
+4. 进入考场 (④고사장 입실)
+5. 发表关于申请动机及学业计划的内容 (⑤지원동기 및 학업계획 발표)
+6. 讨论与学业能力、专业适应性相关的一般问题并回答质询 (⑥학업역량, 전공적합성 관련 공통문항 발표 및 질의응답)
+7. 回答其他问题（检查提交文件的真实性等）(⑦기타 질의응답 - 使用面试时填写的问题清单来验证提交的文件的真实性）
+8. 离场 (⑧퇴실)
+按照上述步骤，考生将依次完成整个面试流程。</t>
+        </is>
+      </c>
+      <c r="D301" t="n">
+        <v>0.2078161592902179</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>GPT-4o-mini Average</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D302" t="n">
+        <v>0.3503363891862098</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Google Gemma-2-9b-it Average</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D303" t="n">
+        <v>0.1851147391630709</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct Average</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D304" t="n">
+        <v>0.17897756172651</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
           <t>Total Average</t>
         </is>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="B305" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
+      <c r="C305" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="D204" t="n">
-        <v>0.2677255641746404</v>
+      <c r="D305" t="n">
+        <v>0.2381428966919302</v>
       </c>
     </row>
   </sheetData>
